--- a/webservice/manual/xlsx/ModeloImportacaoOportunidades.xlsx
+++ b/webservice/manual/xlsx/ModeloImportacaoOportunidades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bighetti/Workspace/bp_24x/src/webservice/manual/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7B306-93F7-AC49-9FA1-C01850E814DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C94FD41-230C-674F-9EFA-E550300B790A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Nome da Oportunidade</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Tipo de Oportunidade</t>
+  </si>
+  <si>
+    <t>Segmento</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK1"/>
+  <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,7 +544,7 @@
     <col min="37" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,6 +655,9 @@
       </c>
       <c r="AK1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
